--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H2">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>8.090342573258667</v>
+        <v>29.41386896745889</v>
       </c>
       <c r="R2">
-        <v>72.81308315932802</v>
+        <v>264.72482070713</v>
       </c>
       <c r="S2">
-        <v>0.01468505204069904</v>
+        <v>0.03915324248344936</v>
       </c>
       <c r="T2">
-        <v>0.01468505204069904</v>
+        <v>0.03915324248344937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H3">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>21.76845225650489</v>
+        <v>59.91708901456445</v>
       </c>
       <c r="R3">
-        <v>195.916070308544</v>
+        <v>539.2538011310801</v>
       </c>
       <c r="S3">
-        <v>0.03951264749763101</v>
+        <v>0.07975653654012764</v>
       </c>
       <c r="T3">
-        <v>0.039512647497631</v>
+        <v>0.07975653654012765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H4">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>14.66907492091911</v>
+        <v>41.48994967260111</v>
       </c>
       <c r="R4">
-        <v>132.021674288272</v>
+        <v>373.4095470534101</v>
       </c>
       <c r="S4">
-        <v>0.02662632968282874</v>
+        <v>0.05522789477149838</v>
       </c>
       <c r="T4">
-        <v>0.02662632968282874</v>
+        <v>0.0552278947714984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H5">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>4.006882761740444</v>
+        <v>10.05342728100667</v>
       </c>
       <c r="R5">
-        <v>36.061944855664</v>
+        <v>90.48084552906001</v>
       </c>
       <c r="S5">
-        <v>0.007273027235166624</v>
+        <v>0.01338226795524427</v>
       </c>
       <c r="T5">
-        <v>0.007273027235166625</v>
+        <v>0.01338226795524427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.289964</v>
       </c>
       <c r="I6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>62.20858734679734</v>
+        <v>82.16983733704755</v>
       </c>
       <c r="R6">
-        <v>559.877286121176</v>
+        <v>739.5285360334279</v>
       </c>
       <c r="S6">
-        <v>0.1129168924917517</v>
+        <v>0.1093775038449474</v>
       </c>
       <c r="T6">
-        <v>0.1129168924917517</v>
+        <v>0.1093775038449474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.289964</v>
       </c>
       <c r="I7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
-        <v>167.3828581844497</v>
+        <v>167.3828581844498</v>
       </c>
       <c r="R7">
         <v>1506.445723660048</v>
       </c>
       <c r="S7">
-        <v>0.3038222375507563</v>
+        <v>0.2228058349385769</v>
       </c>
       <c r="T7">
-        <v>0.3038222375507563</v>
+        <v>0.222805834938577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.289964</v>
       </c>
       <c r="I8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>112.7940405800582</v>
+        <v>115.9052697042884</v>
       </c>
       <c r="R8">
-        <v>1015.146365220524</v>
+        <v>1043.147427338596</v>
       </c>
       <c r="S8">
-        <v>0.2047362445780472</v>
+        <v>0.1542832442363209</v>
       </c>
       <c r="T8">
-        <v>0.2047362445780472</v>
+        <v>0.1542832442363209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.289964</v>
       </c>
       <c r="I9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>30.80988400862088</v>
+        <v>28.08499912997066</v>
       </c>
       <c r="R9">
-        <v>277.288956077588</v>
+        <v>252.764992169736</v>
       </c>
       <c r="S9">
-        <v>0.05592405339299013</v>
+        <v>0.03738436389649162</v>
       </c>
       <c r="T9">
-        <v>0.05592405339299013</v>
+        <v>0.03738436389649163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H10">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>20.391319386968</v>
+        <v>29.96578148443268</v>
       </c>
       <c r="R10">
-        <v>183.521874482712</v>
+        <v>269.692033359894</v>
       </c>
       <c r="S10">
-        <v>0.03701296745652236</v>
+        <v>0.03988790151897548</v>
       </c>
       <c r="T10">
-        <v>0.03701296745652236</v>
+        <v>0.03988790151897549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H11">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>54.86633705593066</v>
+        <v>61.04135428698934</v>
       </c>
       <c r="R11">
-        <v>493.7970335033759</v>
+        <v>549.3721885829041</v>
       </c>
       <c r="S11">
-        <v>0.09958972783328583</v>
+        <v>0.08125306291942413</v>
       </c>
       <c r="T11">
-        <v>0.09958972783328583</v>
+        <v>0.08125306291942415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H12">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>36.97269789446533</v>
+        <v>42.26845394139534</v>
       </c>
       <c r="R12">
-        <v>332.754281050188</v>
+        <v>380.416085472558</v>
       </c>
       <c r="S12">
-        <v>0.06711038349103886</v>
+        <v>0.05626417348900482</v>
       </c>
       <c r="T12">
-        <v>0.06711038349103886</v>
+        <v>0.05626417348900483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H13">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>10.09915530781733</v>
+        <v>10.242066604892</v>
       </c>
       <c r="R13">
-        <v>90.892397770356</v>
+        <v>92.17859944402799</v>
       </c>
       <c r="S13">
-        <v>0.01833131538244169</v>
+        <v>0.0136333685907359</v>
       </c>
       <c r="T13">
-        <v>0.01833131538244169</v>
+        <v>0.0136333685907359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H14">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I14">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J14">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>1.144176253715334</v>
+        <v>15.30779732382545</v>
       </c>
       <c r="R14">
-        <v>10.297586283438</v>
+        <v>137.770175914429</v>
       </c>
       <c r="S14">
-        <v>0.002076832677651873</v>
+        <v>0.02037643878710097</v>
       </c>
       <c r="T14">
-        <v>0.002076832677651873</v>
+        <v>0.02037643878710097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H15">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I15">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J15">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>3.078602163813778</v>
+        <v>31.18252331521822</v>
       </c>
       <c r="R15">
-        <v>27.707419474324</v>
+        <v>280.642709836964</v>
       </c>
       <c r="S15">
-        <v>0.005588074000431892</v>
+        <v>0.04150752483317489</v>
       </c>
       <c r="T15">
-        <v>0.005588074000431891</v>
+        <v>0.0415075248331749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H16">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I16">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J16">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>2.074573114365223</v>
+        <v>21.59252634417255</v>
       </c>
       <c r="R16">
-        <v>18.671158029287</v>
+        <v>194.332737097553</v>
       </c>
       <c r="S16">
-        <v>0.00376562721180513</v>
+        <v>0.02874213591958804</v>
       </c>
       <c r="T16">
-        <v>0.00376562721180513</v>
+        <v>0.02874213591958805</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H17">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I17">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J17">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>0.566673174329889</v>
+        <v>5.232083796855333</v>
       </c>
       <c r="R17">
-        <v>5.100058568969001</v>
+        <v>47.088754171698</v>
       </c>
       <c r="S17">
-        <v>0.001028587476951636</v>
+        <v>0.006964505275339193</v>
       </c>
       <c r="T17">
-        <v>0.001028587476951636</v>
+        <v>0.006964505275339194</v>
       </c>
     </row>
   </sheetData>
